--- a/Tests/test_scalability/2nd Test for transfer_matrix/transfer_matrix_scalability_test.xlsx
+++ b/Tests/test_scalability/2nd Test for transfer_matrix/transfer_matrix_scalability_test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangliangyang/Library/CloudStorage/OneDrive-Personal/研究相关/STvEA_Python/Tests/test_scalability/2nd Test for transfer_matrix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c70b3aaaf2cd887d/研究相关/STvEA_Python/Tests/test_scalability/2nd Test for transfer_matrix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618FB0A-96E6-4941-9A0B-F5DB86F14D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FB3EA2EB-5CFF-2643-B88D-768548B9D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A131509-FA0B-E04E-AEF3-CE3EC65B13B4}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="500" windowWidth="22140" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1640" windowWidth="30520" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Number of Cells</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,32 @@
   <si>
     <t>Macbook Air M1 16 GB</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell Number N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logrithmic Cell Number Log(N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Space (Mb) S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logrithmic Average Space Log(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn NN brutal force </t>
+  </si>
+  <si>
+    <t>cor_nn</t>
   </si>
 </sst>
 </file>
@@ -162,8 +188,57 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>run_cca</a:t>
+              <a:t>transfer_matrix</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>sklearn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>brutal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>NN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -306,7 +381,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -339,7 +414,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:f>Sheet1!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -679,7 +754,542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>transfer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>matrix</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>space</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>sklearn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>brutal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>NN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7630796150481185E-2"/>
+                  <c:y val="-2.5958734324876057E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:t>log(S)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 1.5897</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:t>log(N)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 3.2195</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.993</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$25:$D$25,Sheet1!$F$25:$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8450980400142569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$28:$D$28,Sheet1!$F$28:$G$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9986951583116557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3424226808222062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5158738437116792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8041394323353503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8615344108590377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFEB-8840-B4DA-1F881FB0D2BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260256672"/>
+        <c:axId val="260259568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260256672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260259568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="260259568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260256672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1235,20 +1845,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6996</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>172229</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371431</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7776</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379985</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1268,6 +2394,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623956</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437B8191-9742-A21D-ACED-C3D5639EF1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1542,7 +2704,7 @@
   <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1550,359 +2712,514 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2000</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>3000</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>4000</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>5000</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>6000</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>7000</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>8000</v>
       </c>
     </row>
-    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.33665823936462402</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.64776921272277799</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1.0939309597015301</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>1.74285912513732</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2.4522082805633501</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>3.3110818862914999</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>4.3375382423400799</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>4.9589419364929199</v>
       </c>
     </row>
-    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.34536075592040999</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.75997996330261197</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1.1262342929839999</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1.6874320507049501</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>2.4737858772277801</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>3.26101398468017</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>4.3115139007568297</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>4.95979905128479</v>
       </c>
     </row>
-    <row r="4" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.392929077148437</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.66589283943176203</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1.0959119796752901</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1.6409621238708401</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>2.45560598373413</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>3.3663229942321702</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>4.2606070041656396</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>4.92866611480712</v>
       </c>
     </row>
-    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5:I5" si="0">AVERAGE(B2:B4)</f>
+      <c r="B6">
+        <f t="shared" ref="B6:I6" si="0">AVERAGE(B3:B5)</f>
         <v>0.35831602414449032</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>0.69121400515238396</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>1.1053590774536068</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>1.6904177665710367</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>2.4605333805084202</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>3.3128062884012799</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>4.3032197157541825</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>4.9491357008616097</v>
       </c>
     </row>
-    <row r="6" spans="1:21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>1000</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>2000</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>3000</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>4000</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>5000</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>6000</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>7000</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="12" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>9.8787784576416002E-2</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>0.22213983535766599</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>0.36740183830261203</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>0.59069991111755304</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>0.81399583816528298</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>1.06122493743896</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>1.36933922767639</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>1.55175280570983</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="13" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>8.6425065994262695E-2</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>0.207203865051269</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>0.27265214920043901</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.49006628990173301</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>0.73041677474975497</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>0.95593714714050204</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>1.32583880424499</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>1.4964189529418901</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>0.13020300865173301</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>0.14156913757324199</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>0.31812715530395502</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>0.49023485183715798</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.746282339096069</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>0.95834589004516602</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>1.2758593559265099</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>1.45177793502807</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
-        <f t="shared" ref="B13:I13" si="1">AVERAGE(B10:B12)</f>
+      <c r="B15">
+        <f t="shared" ref="B15:I15" si="1">AVERAGE(B12:B14)</f>
         <v>0.10513861974080391</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>0.19030427932739233</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>0.31939371426900204</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>0.52366701761881462</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>0.76356498400370232</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>0.99183599154154267</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>1.32367912928263</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>1.4999832312265966</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+    <row r="16" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
     </row>
-    <row r="32" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>3000</v>
+      </c>
+      <c r="D24">
+        <v>4000</v>
+      </c>
+      <c r="E24">
+        <v>5000</v>
+      </c>
+      <c r="F24">
+        <v>6000</v>
+      </c>
+      <c r="G24">
+        <v>7000</v>
+      </c>
+      <c r="H24">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:H25" si="2">LOG(B24)</f>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>3.8450980400142569</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>3.9030899869919438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>99.7</v>
+      </c>
+      <c r="C26">
+        <v>220</v>
+      </c>
+      <c r="D26">
+        <v>328</v>
+      </c>
+      <c r="E26">
+        <v>99.2</v>
+      </c>
+      <c r="F26">
+        <v>637</v>
+      </c>
+      <c r="G26">
+        <v>727</v>
+      </c>
+      <c r="H26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:H27" si="3">AVERAGE(B26:B26)</f>
+        <v>99.7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>99.2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>637</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>727</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:H28" si="4">LOG(B27)</f>
+        <v>1.9986951583116557</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>2.3424226808222062</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>2.5158738437116792</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>1.9965116721541787</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>2.8041394323353503</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>2.8615344108590377</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>2.406540180433955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="37" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="53" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="64" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="69" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="85" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="96" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
   </sheetData>
